--- a/statistics/R/roiHumanBody_Within-PLI_gamma_A/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_gamma_A/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.019626769626769625</v>
+        <v>0.009813384813384812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00418470418470418</v>
+        <v>0.00209235209235209</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0136391474152385</v>
+        <v>-0.00681957370761925</v>
       </c>
       <c r="F2" t="n">
-        <v>0.020559334845049154</v>
+        <v>0.010279667422524577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.017018613000755883</v>
+        <v>0.008509306500377942</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003272069061542787</v>
+        <v>0.0016360345307713936</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01301570010720332</v>
+        <v>0.00650785005360166</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0076541727802231785</v>
+        <v>0.0038270863901115892</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02419856831621542</v>
+        <v>-0.01209928415810771</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03812636165577343</v>
+        <v>-0.019063180827886717</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01384998443821972</v>
+        <v>0.00692499221910986</v>
       </c>
       <c r="H3" t="n">
-        <v>0.019892986434339843</v>
+        <v>0.009946493217169922</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.068093303387255E-4</v>
+        <v>-2.534046651693628E-4</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.018492660221983565</v>
+        <v>-0.009246330110991782</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.024502138537226242</v>
+        <v>-0.012251069268613121</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.021944105277438564</v>
+        <v>-0.010972052638719282</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0067104489619109475</v>
+        <v>0.0033552244809554738</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.00110000110000108</v>
+        <v>-5.5000055000054E-4</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.024794181937039084</v>
+        <v>0.012397090968519542</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001129015017903856</v>
+        <v>5.64507508951928E-4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03242583583140854</v>
+        <v>0.01621291791570427</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005751964085297462</v>
+        <v>0.002875982042648731</v>
       </c>
       <c r="G5" t="n">
-        <v>0.010513927793339595</v>
+        <v>0.005256963896669797</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002772826302238074</v>
+        <v>0.001386413151119037</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02745419412086081</v>
+        <v>0.013727097060430404</v>
       </c>
       <c r="D6" t="n">
-        <v>0.014699607441542917</v>
+        <v>0.007349803720771458</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05952037380608813</v>
+        <v>0.029760186903044064</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008818342151675457</v>
+        <v>0.004409171075837728</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0253641396498539</v>
+        <v>0.01268206982492695</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01744998967221187</v>
+        <v>-0.008724994836105934</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.018846719974539544</v>
+        <v>0.009423359987269772</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0168939629723944</v>
+        <v>-0.0084469814861972</v>
       </c>
       <c r="E7" t="n">
-        <v>0.010209343542676913</v>
+        <v>0.0051046717713384565</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02399848828420259</v>
+        <v>0.011999244142101295</v>
       </c>
       <c r="G7" t="n">
-        <v>0.017413076341647765</v>
+        <v>0.008706538170823883</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05427059712773999</v>
+        <v>-0.027135298563869995</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00701752172340403</v>
+        <v>0.003508760861702015</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004493962827296222</v>
+        <v>0.002246981413648111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03002645502645504</v>
+        <v>0.01501322751322752</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00798173020395243</v>
+        <v>0.003990865101976215</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03196666053808914</v>
+        <v>0.01598333026904457</v>
       </c>
       <c r="H8" t="n">
-        <v>0.022936875367430914</v>
+        <v>0.011468437683715457</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0010421677088343628</v>
+        <v>-5.210838544171814E-4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.010135810596640038</v>
+        <v>-0.005067905298320019</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.013326542738307467</v>
+        <v>-0.006663271369153734</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.024040480389686758</v>
+        <v>-0.012020240194843379</v>
       </c>
       <c r="G9" t="n">
-        <v>0.030262946929613566</v>
+        <v>0.015131473464806783</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00857854512825279</v>
+        <v>0.004289272564126395</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01901204926415012</v>
+        <v>0.00950602463207506</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.030284043441938163</v>
+        <v>-0.015142021720969082</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03973361116218263</v>
+        <v>0.019866805581091315</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004412876261615767</v>
+        <v>0.0022064381308078834</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009167898056786888</v>
+        <v>0.004583949028393444</v>
       </c>
       <c r="H10" t="n">
-        <v>0.012484993997599059</v>
+        <v>0.006242496998799529</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.035995794329127695</v>
+        <v>0.017997897164563847</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005708716235032024</v>
+        <v>0.002854358117516012</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01866151866151866</v>
+        <v>-0.00933075933075933</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02878235378235372</v>
+        <v>-0.01439117689117686</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.015145502645502629</v>
+        <v>-0.007572751322751314</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.023679509790620862</v>
+        <v>-0.011839754895310431</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.019177216545637615</v>
+        <v>-0.009588608272818808</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03133886905816731</v>
+        <v>0.015669434529083655</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01910686196400485</v>
+        <v>0.009553430982002425</v>
       </c>
       <c r="F12" t="n">
-        <v>0.017010780920555357</v>
+        <v>0.008505390460277679</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03856020522687187</v>
+        <v>0.019280102613435934</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03222086555419887</v>
+        <v>0.016110432777099434</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02505016101507329</v>
+        <v>-0.012525080507536646</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.006157943657943671</v>
+        <v>-0.0030789718289718354</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008900724032302965</v>
+        <v>0.004450362016151482</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.003637566137566134</v>
+        <v>-0.001818783068783067</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009796273685162615</v>
+        <v>0.004898136842581308</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.004728702097123172</v>
+        <v>-0.002364351048561586</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.012878978751994619</v>
+        <v>-0.006439489375997309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006393298059964692</v>
+        <v>0.003196649029982346</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0077424363138649255</v>
+        <v>0.0038712181569324627</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03177126706538472</v>
+        <v>-0.01588563353269236</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02588302588302588</v>
+        <v>-0.01294151294151294</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.012606220939554297</v>
+        <v>-0.006303110469777148</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.010449843783177148</v>
+        <v>0.005224921891588574</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.048073867518311955</v>
+        <v>-0.024036933759155978</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01852249671798545</v>
+        <v>-0.009261248358992724</v>
       </c>
       <c r="F15" t="n">
-        <v>0.017116740800951324</v>
+        <v>0.008558370400475662</v>
       </c>
       <c r="G15" t="n">
-        <v>0.010039706118137481</v>
+        <v>0.005019853059068741</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.029515281896234244</v>
+        <v>-0.014757640948117122</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.018476810143476824</v>
+        <v>0.009238405071738412</v>
       </c>
       <c r="D16" t="n">
-        <v>0.008744082428292943</v>
+        <v>0.0043720412141464715</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0015418348751682354</v>
+        <v>7.709174375841177E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0018796992481203145</v>
+        <v>-9.398496240601573E-4</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.011684845018178402</v>
+        <v>-0.005842422509089201</v>
       </c>
       <c r="H16" t="n">
-        <v>0.014481101082408299</v>
+        <v>0.007240550541204149</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0028659611992944978</v>
+        <v>-0.0014329805996472489</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.017416557266181326</v>
+        <v>-0.008708278633090663</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.007793507793507765</v>
+        <v>-0.0038967538967538823</v>
       </c>
       <c r="F17" t="n">
-        <v>-8.616675283343311E-5</v>
+        <v>-4.308337641671656E-5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03167453167453166</v>
+        <v>0.01583726583726583</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.008685272574161462</v>
+        <v>-0.004342636287080731</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.016642686964324443</v>
+        <v>-0.008321343482162222</v>
       </c>
       <c r="D18" t="n">
-        <v>0.012296614552253643</v>
+        <v>0.0061483072761268215</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02007901926202582</v>
+        <v>0.01003950963101291</v>
       </c>
       <c r="F18" t="n">
-        <v>0.013273777979660312</v>
+        <v>0.006636888989830156</v>
       </c>
       <c r="G18" t="n">
-        <v>0.018088099437305827</v>
+        <v>0.009044049718652913</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01177038716721257</v>
+        <v>0.005885193583606285</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007222642143277086</v>
+        <v>0.003611321071638543</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.027371669915529556</v>
+        <v>-0.013685834957764778</v>
       </c>
       <c r="E19" t="n">
-        <v>0.018192795970573744</v>
+        <v>0.009096397985286872</v>
       </c>
       <c r="F19" t="n">
-        <v>0.016749389814405297</v>
+        <v>0.008374694907202648</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.011473006711101935</v>
+        <v>-0.005736503355550968</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.03797576378221543</v>
+        <v>-0.018987881891107714</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.018861561718704623</v>
+        <v>0.009430780859352311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006589296062980227</v>
+        <v>0.0032946480314901133</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00856396689730024</v>
+        <v>0.00428198344865012</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04826346493013162</v>
+        <v>0.02413173246506581</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.005562338895672203</v>
+        <v>-0.0027811694478361015</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0046929883064336375</v>
+        <v>0.0023464941532168188</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.055810389143722494</v>
+        <v>-0.027905194571861247</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.015098287028111612</v>
+        <v>-0.007549143514055806</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.017464350797684103</v>
+        <v>-0.008732175398842051</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01245813965112215</v>
+        <v>0.006229069825561075</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0013401559454191136</v>
+        <v>-6.700779727095568E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.008140008140008162</v>
+        <v>0.004070004070004081</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.991184461772632E-4</v>
+        <v>3.995592230886316E-4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.009369488536155227</v>
+        <v>-0.004684744268077613</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005476390893057528</v>
+        <v>0.002738195446528764</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.013141513915507719</v>
+        <v>-0.006570756957753859</v>
       </c>
       <c r="G22" t="n">
-        <v>0.010128495842781582</v>
+        <v>0.005064247921390791</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.013857111079333323</v>
+        <v>-0.0069285555396666615</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.005336685892241455</v>
+        <v>-0.0026683429461207275</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.029396743682457982</v>
+        <v>-0.014698371841228991</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04992210255368154</v>
+        <v>0.02496105127684077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00857450857450856</v>
+        <v>0.00428725428725428</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007769047242731447</v>
+        <v>0.0038845236213657236</v>
       </c>
       <c r="H23" t="n">
-        <v>0.018382352941176433</v>
+        <v>0.009191176470588217</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.013227513227513213</v>
+        <v>0.0066137566137566065</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.035981156595191716</v>
+        <v>-0.017990578297595858</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.014855514855514895</v>
+        <v>-0.007427757427757448</v>
       </c>
       <c r="F24" t="n">
-        <v>0.005291005291005263</v>
+        <v>0.0026455026455026315</v>
       </c>
       <c r="G24" t="n">
-        <v>0.014364615241808223</v>
+        <v>0.007182307620904112</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.007777634970617439</v>
+        <v>-0.0038888174853087196</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0034566586290724344</v>
+        <v>-0.0017283293145362172</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02767052767052766</v>
+        <v>0.01383526383526383</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0015275015275015152</v>
+        <v>7.637507637507576E-4</v>
       </c>
       <c r="F25" t="n">
-        <v>0.008151008151008124</v>
+        <v>0.004075504075504062</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.012309031356650402</v>
+        <v>-0.006154515678325201</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.011565136565136552</v>
+        <v>-0.005782568282568276</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0021504378229524612</v>
+        <v>-0.0010752189114762306</v>
       </c>
       <c r="D26" t="n">
-        <v>0.026389654961083503</v>
+        <v>0.013194827480541751</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.02485640720934837</v>
+        <v>-0.012428203604674185</v>
       </c>
       <c r="F26" t="n">
-        <v>0.005517762660619818</v>
+        <v>0.002758881330309909</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005641477863700117</v>
+        <v>0.0028207389318500586</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03228637133865894</v>
+        <v>0.01614318566932947</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.017659890466908024</v>
+        <v>-0.008829945233454012</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.630031869798599E-4</v>
+        <v>-1.3150159348992996E-4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01792404649547502</v>
+        <v>0.00896202324773751</v>
       </c>
       <c r="F27" t="n">
-        <v>0.011011011011010985</v>
+        <v>0.0055055055055054924</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03161036494369829</v>
+        <v>-0.015805182471849144</v>
       </c>
       <c r="H27" t="n">
-        <v>0.006435006435006427</v>
+        <v>0.0032175032175032134</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.653313177122697E-4</v>
+        <v>1.8266565885613484E-4</v>
       </c>
       <c r="D28" t="n">
-        <v>0.006315070831199851</v>
+        <v>0.0031575354155999255</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005283060838616405</v>
+        <v>0.0026415304193082023</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.006160241874527572</v>
+        <v>-0.003080120937263786</v>
       </c>
       <c r="G28" t="n">
-        <v>0.008624094799210058</v>
+        <v>0.004312047399605029</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.008247743541861169</v>
+        <v>-0.0041238717709305844</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.015594541910331342</v>
+        <v>-0.007797270955165671</v>
       </c>
       <c r="D29" t="n">
-        <v>9.221675888342745E-4</v>
+        <v>4.6108379441713726E-4</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.01905476905476905</v>
+        <v>-0.009527384527384525</v>
       </c>
       <c r="F29" t="n">
-        <v>1.924746506790087E-4</v>
+        <v>9.623732533950435E-5</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02740291311719885</v>
+        <v>-0.013701456558599424</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0025025025025025294</v>
+        <v>-0.0012512512512512647</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01580866580866583</v>
+        <v>0.007904332904332914</v>
       </c>
       <c r="D30" t="n">
-        <v>0.010033247533247525</v>
+        <v>0.005016623766623762</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.014168930835597532</v>
+        <v>-0.007084465417798766</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.031138281138281154</v>
+        <v>-0.015569140569140577</v>
       </c>
       <c r="G30" t="n">
-        <v>0.018518518518518573</v>
+        <v>0.009259259259259287</v>
       </c>
       <c r="H30" t="n">
-        <v>0.012023301496985717</v>
+        <v>0.006011650748492858</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1181,7 @@
         <v>0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.018</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.001</v>
+        <v>-0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.055810389143722494</v>
+        <v>-0.027905194571861247</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03812636165577343</v>
+        <v>-0.019063180827886717</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>19.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04826346493013162</v>
+        <v>0.02413173246506581</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>6.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05427059712773999</v>
+        <v>-0.027135298563869995</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>

--- a/statistics/R/roiHumanBody_Within-PLI_gamma_A/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_gamma_A/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009813384813384812</v>
+        <v>0.019626769626769625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00209235209235209</v>
+        <v>0.00418470418470418</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00681957370761925</v>
+        <v>-0.0136391474152385</v>
       </c>
       <c r="F2" t="n">
-        <v>0.010279667422524577</v>
+        <v>0.020559334845049154</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008509306500377942</v>
+        <v>0.017018613000755883</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0016360345307713936</v>
+        <v>0.003272069061542787</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00650785005360166</v>
+        <v>0.01301570010720332</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0038270863901115892</v>
+        <v>0.0076541727802231785</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01209928415810771</v>
+        <v>-0.02419856831621542</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.019063180827886717</v>
+        <v>-0.03812636165577343</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00692499221910986</v>
+        <v>0.01384998443821972</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009946493217169922</v>
+        <v>0.019892986434339843</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.534046651693628E-4</v>
+        <v>-5.068093303387255E-4</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.009246330110991782</v>
+        <v>-0.018492660221983565</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.012251069268613121</v>
+        <v>-0.024502138537226242</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.010972052638719282</v>
+        <v>-0.021944105277438564</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0033552244809554738</v>
+        <v>0.0067104489619109475</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.5000055000054E-4</v>
+        <v>-0.00110000110000108</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.012397090968519542</v>
+        <v>0.024794181937039084</v>
       </c>
       <c r="D5" t="n">
-        <v>5.64507508951928E-4</v>
+        <v>0.001129015017903856</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01621291791570427</v>
+        <v>0.03242583583140854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002875982042648731</v>
+        <v>0.005751964085297462</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005256963896669797</v>
+        <v>0.010513927793339595</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001386413151119037</v>
+        <v>0.002772826302238074</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.013727097060430404</v>
+        <v>0.02745419412086081</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007349803720771458</v>
+        <v>0.014699607441542917</v>
       </c>
       <c r="E6" t="n">
-        <v>0.029760186903044064</v>
+        <v>0.05952037380608813</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004409171075837728</v>
+        <v>0.008818342151675457</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01268206982492695</v>
+        <v>0.0253641396498539</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.008724994836105934</v>
+        <v>-0.01744998967221187</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009423359987269772</v>
+        <v>0.018846719974539544</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0084469814861972</v>
+        <v>-0.0168939629723944</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0051046717713384565</v>
+        <v>0.010209343542676913</v>
       </c>
       <c r="F7" t="n">
-        <v>0.011999244142101295</v>
+        <v>0.02399848828420259</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008706538170823883</v>
+        <v>0.017413076341647765</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.027135298563869995</v>
+        <v>-0.05427059712773999</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003508760861702015</v>
+        <v>0.00701752172340403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002246981413648111</v>
+        <v>0.004493962827296222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01501322751322752</v>
+        <v>0.03002645502645504</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003990865101976215</v>
+        <v>0.00798173020395243</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01598333026904457</v>
+        <v>0.03196666053808914</v>
       </c>
       <c r="H8" t="n">
-        <v>0.011468437683715457</v>
+        <v>0.022936875367430914</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.210838544171814E-4</v>
+        <v>-0.0010421677088343628</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005067905298320019</v>
+        <v>-0.010135810596640038</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.006663271369153734</v>
+        <v>-0.013326542738307467</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.012020240194843379</v>
+        <v>-0.024040480389686758</v>
       </c>
       <c r="G9" t="n">
-        <v>0.015131473464806783</v>
+        <v>0.030262946929613566</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004289272564126395</v>
+        <v>0.00857854512825279</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00950602463207506</v>
+        <v>0.01901204926415012</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.015142021720969082</v>
+        <v>-0.030284043441938163</v>
       </c>
       <c r="E10" t="n">
-        <v>0.019866805581091315</v>
+        <v>0.03973361116218263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0022064381308078834</v>
+        <v>0.004412876261615767</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004583949028393444</v>
+        <v>0.009167898056786888</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006242496998799529</v>
+        <v>0.012484993997599059</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.017997897164563847</v>
+        <v>0.035995794329127695</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002854358117516012</v>
+        <v>0.005708716235032024</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00933075933075933</v>
+        <v>-0.01866151866151866</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01439117689117686</v>
+        <v>-0.02878235378235372</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.007572751322751314</v>
+        <v>-0.015145502645502629</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.011839754895310431</v>
+        <v>-0.023679509790620862</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.009588608272818808</v>
+        <v>-0.019177216545637615</v>
       </c>
       <c r="D12" t="n">
-        <v>0.015669434529083655</v>
+        <v>0.03133886905816731</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009553430982002425</v>
+        <v>0.01910686196400485</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008505390460277679</v>
+        <v>0.017010780920555357</v>
       </c>
       <c r="G12" t="n">
-        <v>0.019280102613435934</v>
+        <v>0.03856020522687187</v>
       </c>
       <c r="H12" t="n">
-        <v>0.016110432777099434</v>
+        <v>0.03222086555419887</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.012525080507536646</v>
+        <v>-0.02505016101507329</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0030789718289718354</v>
+        <v>-0.006157943657943671</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004450362016151482</v>
+        <v>0.008900724032302965</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.001818783068783067</v>
+        <v>-0.003637566137566134</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004898136842581308</v>
+        <v>0.009796273685162615</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.002364351048561586</v>
+        <v>-0.004728702097123172</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.006439489375997309</v>
+        <v>-0.012878978751994619</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003196649029982346</v>
+        <v>0.006393298059964692</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0038712181569324627</v>
+        <v>0.0077424363138649255</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01588563353269236</v>
+        <v>-0.03177126706538472</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01294151294151294</v>
+        <v>-0.02588302588302588</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.006303110469777148</v>
+        <v>-0.012606220939554297</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005224921891588574</v>
+        <v>0.010449843783177148</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.024036933759155978</v>
+        <v>-0.048073867518311955</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.009261248358992724</v>
+        <v>-0.01852249671798545</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008558370400475662</v>
+        <v>0.017116740800951324</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005019853059068741</v>
+        <v>0.010039706118137481</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.014757640948117122</v>
+        <v>-0.029515281896234244</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009238405071738412</v>
+        <v>0.018476810143476824</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0043720412141464715</v>
+        <v>0.008744082428292943</v>
       </c>
       <c r="E16" t="n">
-        <v>7.709174375841177E-4</v>
+        <v>0.0015418348751682354</v>
       </c>
       <c r="F16" t="n">
-        <v>-9.398496240601573E-4</v>
+        <v>-0.0018796992481203145</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.005842422509089201</v>
+        <v>-0.011684845018178402</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007240550541204149</v>
+        <v>0.014481101082408299</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0014329805996472489</v>
+        <v>-0.0028659611992944978</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.008708278633090663</v>
+        <v>-0.017416557266181326</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0038967538967538823</v>
+        <v>-0.007793507793507765</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.308337641671656E-5</v>
+        <v>-8.616675283343311E-5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01583726583726583</v>
+        <v>0.03167453167453166</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.004342636287080731</v>
+        <v>-0.008685272574161462</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.008321343482162222</v>
+        <v>-0.016642686964324443</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0061483072761268215</v>
+        <v>0.012296614552253643</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01003950963101291</v>
+        <v>0.02007901926202582</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006636888989830156</v>
+        <v>0.013273777979660312</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009044049718652913</v>
+        <v>0.018088099437305827</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005885193583606285</v>
+        <v>0.01177038716721257</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003611321071638543</v>
+        <v>0.007222642143277086</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.013685834957764778</v>
+        <v>-0.027371669915529556</v>
       </c>
       <c r="E19" t="n">
-        <v>0.009096397985286872</v>
+        <v>0.018192795970573744</v>
       </c>
       <c r="F19" t="n">
-        <v>0.008374694907202648</v>
+        <v>0.016749389814405297</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005736503355550968</v>
+        <v>-0.011473006711101935</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.018987881891107714</v>
+        <v>-0.03797576378221543</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009430780859352311</v>
+        <v>0.018861561718704623</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0032946480314901133</v>
+        <v>0.006589296062980227</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00428198344865012</v>
+        <v>0.00856396689730024</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02413173246506581</v>
+        <v>0.04826346493013162</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0027811694478361015</v>
+        <v>-0.005562338895672203</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0023464941532168188</v>
+        <v>0.0046929883064336375</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.027905194571861247</v>
+        <v>-0.055810389143722494</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.007549143514055806</v>
+        <v>-0.015098287028111612</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.008732175398842051</v>
+        <v>-0.017464350797684103</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006229069825561075</v>
+        <v>0.01245813965112215</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.700779727095568E-4</v>
+        <v>-0.0013401559454191136</v>
       </c>
       <c r="H21" t="n">
-        <v>0.004070004070004081</v>
+        <v>0.008140008140008162</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.995592230886316E-4</v>
+        <v>7.991184461772632E-4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.004684744268077613</v>
+        <v>-0.009369488536155227</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002738195446528764</v>
+        <v>0.005476390893057528</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006570756957753859</v>
+        <v>-0.013141513915507719</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005064247921390791</v>
+        <v>0.010128495842781582</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0069285555396666615</v>
+        <v>-0.013857111079333323</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0026683429461207275</v>
+        <v>-0.005336685892241455</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.014698371841228991</v>
+        <v>-0.029396743682457982</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02496105127684077</v>
+        <v>0.04992210255368154</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00428725428725428</v>
+        <v>0.00857450857450856</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0038845236213657236</v>
+        <v>0.007769047242731447</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009191176470588217</v>
+        <v>0.018382352941176433</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0066137566137566065</v>
+        <v>0.013227513227513213</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.017990578297595858</v>
+        <v>-0.035981156595191716</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.007427757427757448</v>
+        <v>-0.014855514855514895</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0026455026455026315</v>
+        <v>0.005291005291005263</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007182307620904112</v>
+        <v>0.014364615241808223</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0038888174853087196</v>
+        <v>-0.007777634970617439</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0017283293145362172</v>
+        <v>-0.0034566586290724344</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01383526383526383</v>
+        <v>0.02767052767052766</v>
       </c>
       <c r="E25" t="n">
-        <v>7.637507637507576E-4</v>
+        <v>0.0015275015275015152</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004075504075504062</v>
+        <v>0.008151008151008124</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.006154515678325201</v>
+        <v>-0.012309031356650402</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.005782568282568276</v>
+        <v>-0.011565136565136552</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0010752189114762306</v>
+        <v>-0.0021504378229524612</v>
       </c>
       <c r="D26" t="n">
-        <v>0.013194827480541751</v>
+        <v>0.026389654961083503</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.012428203604674185</v>
+        <v>-0.02485640720934837</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002758881330309909</v>
+        <v>0.005517762660619818</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0028207389318500586</v>
+        <v>0.005641477863700117</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01614318566932947</v>
+        <v>0.03228637133865894</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.008829945233454012</v>
+        <v>-0.017659890466908024</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.3150159348992996E-4</v>
+        <v>-2.630031869798599E-4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00896202324773751</v>
+        <v>0.01792404649547502</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0055055055055054924</v>
+        <v>0.011011011011010985</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.015805182471849144</v>
+        <v>-0.03161036494369829</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0032175032175032134</v>
+        <v>0.006435006435006427</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.8266565885613484E-4</v>
+        <v>3.653313177122697E-4</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0031575354155999255</v>
+        <v>0.006315070831199851</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0026415304193082023</v>
+        <v>0.005283060838616405</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.003080120937263786</v>
+        <v>-0.006160241874527572</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004312047399605029</v>
+        <v>0.008624094799210058</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0041238717709305844</v>
+        <v>-0.008247743541861169</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.007797270955165671</v>
+        <v>-0.015594541910331342</v>
       </c>
       <c r="D29" t="n">
-        <v>4.6108379441713726E-4</v>
+        <v>9.221675888342745E-4</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.009527384527384525</v>
+        <v>-0.01905476905476905</v>
       </c>
       <c r="F29" t="n">
-        <v>9.623732533950435E-5</v>
+        <v>1.924746506790087E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.013701456558599424</v>
+        <v>-0.02740291311719885</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0012512512512512647</v>
+        <v>-0.0025025025025025294</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007904332904332914</v>
+        <v>0.01580866580866583</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005016623766623762</v>
+        <v>0.010033247533247525</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.007084465417798766</v>
+        <v>-0.014168930835597532</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.015569140569140577</v>
+        <v>-0.031138281138281154</v>
       </c>
       <c r="G30" t="n">
-        <v>0.009259259259259287</v>
+        <v>0.018518518518518573</v>
       </c>
       <c r="H30" t="n">
-        <v>0.006011650748492858</v>
+        <v>0.012023301496985717</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.012</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1181,7 @@
         <v>0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0</v>
+        <v>-0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.027905194571861247</v>
+        <v>-0.055810389143722494</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.019063180827886717</v>
+        <v>-0.03812636165577343</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>19.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02413173246506581</v>
+        <v>0.04826346493013162</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>6.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.027135298563869995</v>
+        <v>-0.05427059712773999</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
